--- a/biology/Zoologie/Blongios_de_Chine/Blongios_de_Chine.xlsx
+++ b/biology/Zoologie/Blongios_de_Chine/Blongios_de_Chine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ixobrychus sinensis
 Le Blongios de Chine (Ixobrychus sinensis) est une espèce d'oiseau de la famille des ardéidés qu’on retrouve en Asie.
@@ -512,7 +524,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce blongios vit en Oman, au Pakistan, en Inde, au Népal, au Sri Lanka, en Birmanie, au Laos, au Cambodge, au Viêt Nam, en Thaïlande, en Malaisie, en Indonésie, aux Philippines, à Taïwan, en Chine, en Corée du Nord, en Corée du Sud, au Japon, dans l’extrême est de la Russie, en Nouvelle-Guinée et dans les îles du Pacifique avoisinantes.
 Les populations du centre et du nord de la Chine, de Russie, des deux Corées et du Japon sont nicheuses et migratrices. Les populations du centre et de l’est de l’Indonésie et de Nouvelle-Guinée sont non-nicheuses et migratrices.
@@ -544,7 +558,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Blongios de Chine fréquente principalement les marais d’eau douce et les rizières.
 </t>
@@ -576,6 +592,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
